--- a/DataPool/Folha/Cadastros Gerais/Gerais/Eventos/eSocial/Incid.Trib. da Rubrica IRRF/Incid.Trib. da Rubrica IRRF.xlsx
+++ b/DataPool/Folha/Cadastros Gerais/Gerais/Eventos/eSocial/Incid.Trib. da Rubrica IRRF/Incid.Trib. da Rubrica IRRF.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="20490" windowHeight="7815" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastrar" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
   <si>
-    <t>IDCALCREG</t>
+    <t>IDINCTRIBIRRF</t>
   </si>
   <si>
     <t>DESCRICAO</t>
   </si>
   <si>
-    <t>100</t>
+    <t>DTINIVALIDADE</t>
   </si>
   <si>
-    <t>Valor do Cálculo Teste</t>
+    <t>DTFINVALIDADE</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Fundo de Teste</t>
+  </si>
+  <si>
+    <t>01/10/2015</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
   </si>
 </sst>
 </file>
@@ -35,9 +47,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="178" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -48,8 +60,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -57,59 +121,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,13 +143,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -154,13 +159,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -169,6 +167,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -176,6 +182,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -184,9 +197,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,13 +213,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,169 +345,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -395,41 +407,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,6 +429,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,6 +476,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -481,164 +504,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,33 +980,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9.14285714285714" style="1"/>
-    <col min="2" max="2" width="20.2857142857143" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5714285714286" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1006,28 +1032,38 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="16384" width="9.14285714285714" style="1"/>
+    <col min="1" max="1" width="13.1428571428571" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.2857142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7142857142857" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" s="1" customFormat="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
